--- a/biology/Zoologie/Argiope_protensa/Argiope_protensa.xlsx
+++ b/biology/Zoologie/Argiope_protensa/Argiope_protensa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Argiope protensa est une espèce d'araignées aranéomorphes de la famille des Araneidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argiope protensa est une espèce d'araignées aranéomorphes de la famille des Araneidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Nouvelle-Guinée, en Nouvelle-Calédonie, en Nouvelle-Zélande et en Australie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Nouvelle-Guinée, en Nouvelle-Calédonie, en Nouvelle-Zélande et en Australie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les femelles mesurent de 13 à 21 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les femelles mesurent de 13 à 21 mm.
 Argiope protensa comme tous les membres de ce genre présente un dimorphisme sexuel important. Les mâles ne dépassent pas les 4 mm.
 La couleur et les marques du corps de cette espèce sont très différentes des autres membres des Argiopes, ne présentant notamment pas de couleur jaune ni de stries horizontales mais une couleur argenté-brun et des stries verticales.
 </t>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L. Koch, 1872 : Die Arachniden Australiens. Nürnberg, vol. 1, p. 105-368 (texte intégral).</t>
         </is>
